--- a/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
@@ -5624,7 +5624,7 @@
         <v>1.1</v>
       </c>
       <c r="D126">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E126">
         <v>1.1</v>
@@ -5677,7 +5677,7 @@
         <v>1.9</v>
       </c>
       <c r="D127">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="E127">
         <v>0.9</v>

--- a/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Serie</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q127"/>
+  <dimension ref="A1:Q128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5719,6 +5722,17 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="128" spans="1:17">
+      <c r="A128" t="s">
+        <v>143</v>
+      </c>
+      <c r="E128">
+        <v>1.4</v>
+      </c>
+      <c r="Q128">
+        <v>2.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
@@ -5726,8 +5726,38 @@
       <c r="A128" t="s">
         <v>143</v>
       </c>
+      <c r="B128">
+        <v>4.1</v>
+      </c>
       <c r="E128">
         <v>1.4</v>
+      </c>
+      <c r="F128">
+        <v>1.3</v>
+      </c>
+      <c r="G128">
+        <v>1.2</v>
+      </c>
+      <c r="I128">
+        <v>3.9</v>
+      </c>
+      <c r="K128">
+        <v>7.2</v>
+      </c>
+      <c r="L128">
+        <v>0.1</v>
+      </c>
+      <c r="M128">
+        <v>56</v>
+      </c>
+      <c r="N128">
+        <v>6.2</v>
+      </c>
+      <c r="O128">
+        <v>3</v>
+      </c>
+      <c r="P128">
+        <v>4.8</v>
       </c>
       <c r="Q128">
         <v>2.4</v>

--- a/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
+++ b/12/1/3/Subyacente 1957 a 2021 - Trimestral.xlsx
@@ -5729,6 +5729,12 @@
       <c r="B128">
         <v>4.1</v>
       </c>
+      <c r="C128">
+        <v>2.6</v>
+      </c>
+      <c r="D128">
+        <v>-0.8</v>
+      </c>
       <c r="E128">
         <v>1.4</v>
       </c>
@@ -5738,8 +5744,14 @@
       <c r="G128">
         <v>1.2</v>
       </c>
+      <c r="H128">
+        <v>0.6</v>
+      </c>
       <c r="I128">
         <v>3.9</v>
+      </c>
+      <c r="J128">
+        <v>3.3</v>
       </c>
       <c r="K128">
         <v>7.2</v>
